--- a/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-0,95; 5,83</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 5,55</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 4,05</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>95,11%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>42,01%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,55%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-35,08; 673,69</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-52,09; 433,69</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,24; 240,93</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; -0,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 1,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; -0,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 0,29</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,87%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,34; 15,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,76; 106,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,09; 66,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,08; 16,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,48; -0,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,93; 16,34</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 1,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 0,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 2,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; 0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 1,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; -0,04</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,17%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 219,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 158,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,31; 114,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,75; 38,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,2; 60,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,02; 16,09</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 6,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 4,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 5,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 2,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 5,03</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,31%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,32; 119,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,45; 362,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,21; 304,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,18; 262,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,68; 133,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 226,84</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 1,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 5,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 3,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 6,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 1,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 4,7</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,71%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,51%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,23%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,9%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 175,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,2; 326,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 440,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,13; 596,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,37; 113,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,67; 234,85</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 1,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 0,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 3,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 2,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 2,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 0,75</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,69%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,03%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,63%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-86,92; 268,29</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,15; 390,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,24; 329,71</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,93; 174,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,35; 74,88</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 1,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 2,2</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; -0,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 1,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 0,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 0,73</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,4%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,52%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,06%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,56; 139,75</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,55; 158,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,18; 2,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,72; 35,49</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,21; 10,08</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,22; 28,37</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 0,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 1,44</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 0,81</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 1,25</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 0,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 1,07</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,13%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,5%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,94%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,79%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,39%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,62; 46,05</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,7; 122,99</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,62; 116,33</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,41; 137,29</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,3; 10,85</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,21; 75,91</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; -0,04</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,19</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 0,62</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 0,4</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; -0,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 0,5</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,45%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,23%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,88%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,94; 0,68</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,78; 53,31</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,47; 23,9</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,51; 16,39</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,49; -0,11</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,28; 19,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 2,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 9,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 4,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 666,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,38; 290,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,61</t>
+          <t>-3,73; 3,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,95</t>
+          <t>-2,24; 3,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,73</t>
+          <t>-2,05; 2,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-28,33%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,32; 119,64</t>
+          <t>-71,72; 167,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 304,25</t>
+          <t>-53,45; 197,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 133,34</t>
+          <t>-46,38; 101,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,24</t>
+          <t>-3,36; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 5,83</t>
+          <t>-0,95; 5,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 9,14</t>
+          <t>-0,01; 8,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,55</t>
+          <t>-2,52; 5,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,88</t>
+          <t>-0,48; 5,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,05</t>
+          <t>-0,71; 4,32</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 290,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 673,69</t>
+          <t>-35,47; 573,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 666,38</t>
+          <t>-7,76; 545,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 433,69</t>
+          <t>-55,74; 316,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 290,55</t>
+          <t>-16,44; 321,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 240,93</t>
+          <t>-20,11; 270,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; -0,17</t>
+          <t>-4,41; -0,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,86</t>
+          <t>-3,4; 1,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,32</t>
+          <t>-3,13; 1,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -0,01</t>
+          <t>-4,28; -0,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,13</t>
+          <t>-3,28; 0,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,29</t>
+          <t>-3,12; 0,23</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-89,34; 15,75</t>
+          <t>-90,56; 15,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 106,59</t>
+          <t>-67,91; 88,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,09; 66,1</t>
+          <t>-72,47; 59,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-87,08; 16,62</t>
+          <t>-88,86; 11,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,48; -0,64</t>
+          <t>-76,22; 6,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,93; 16,34</t>
+          <t>-71,86; 11,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,51</t>
+          <t>-2,92; 1,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,75</t>
+          <t>-3,35; 0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,14</t>
+          <t>-3,67; 1,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 0,12</t>
+          <t>-5,17; 0,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,03</t>
+          <t>-2,59; 1,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,04</t>
+          <t>-3,6; -0,12</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 219,07</t>
+          <t>-89,71; 309,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 158,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,31; 114,93</t>
+          <t>-69,51; 91,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-93,75; 38,13</t>
+          <t>-94,66; 60,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,2; 60,11</t>
+          <t>-65,2; 57,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,02; 16,09</t>
+          <t>-88,14; 4,78</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,03</t>
+          <t>-3,78; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,75</t>
+          <t>-0,68; 6,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,81</t>
+          <t>-2,18; 4,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,3</t>
+          <t>-1,18; 4,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,4</t>
+          <t>-1,92; 2,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,03</t>
+          <t>0,37; 5,02</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,72; 167,43</t>
+          <t>-71,55; 188,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 362,23</t>
+          <t>-18,13; 430,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 197,26</t>
+          <t>-47,82; 241,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 262,86</t>
+          <t>-27,61; 253,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,38; 101,34</t>
+          <t>-44,24; 107,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,52; 226,84</t>
+          <t>6,19; 230,46</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,94</t>
+          <t>-5,15; 1,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 5,02</t>
+          <t>-3,5; 5,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,21</t>
+          <t>-3,92; 2,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,35</t>
+          <t>-2,2; 6,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,46</t>
+          <t>-3,43; 1,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 4,7</t>
+          <t>-1,75; 4,2</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 175,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,2; 326,27</t>
+          <t>-77,02; 318,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 440,81</t>
+          <t>-100,0; 331,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,13; 596,14</t>
+          <t>-61,03; 528,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-80,37; 113,27</t>
+          <t>-79,33; 100,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 234,85</t>
+          <t>-47,05; 210,23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,62</t>
+          <t>-3,64; 1,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,59</t>
+          <t>-4,63; 0,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,92</t>
+          <t>-2,38; 4,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,48</t>
+          <t>-3,46; 2,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,18</t>
+          <t>-2,08; 2,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,75</t>
+          <t>-2,96; 0,86</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-86,92; 268,29</t>
+          <t>-100,0; 306,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-65,15; 390,12</t>
+          <t>-66,8; 404,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-83,24; 329,71</t>
+          <t>-82,1; 378,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,93; 174,19</t>
+          <t>-58,75; 166,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,35; 74,88</t>
+          <t>-80,95; 90,94</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,87</t>
+          <t>-1,8; 1,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,2</t>
+          <t>-2,21; 2,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,53; -0,16</t>
+          <t>-4,38; -0,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,15</t>
+          <t>-3,81; 0,73</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,26</t>
+          <t>-2,64; 0,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,73</t>
+          <t>-2,37; 0,89</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-61,56; 139,75</t>
+          <t>-53,88; 171,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-64,55; 158,85</t>
+          <t>-69,75; 143,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-76,18; 2,46</t>
+          <t>-76,39; 2,59</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-66,72; 35,49</t>
+          <t>-68,02; 29,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-61,21; 10,08</t>
+          <t>-60,46; 10,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-55,22; 28,37</t>
+          <t>-56,98; 32,98</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,1</t>
+          <t>-2,79; 0,32</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,44</t>
+          <t>-1,8; 1,53</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,81</t>
+          <t>-2,05; 0,81</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,25</t>
+          <t>-1,75; 1,23</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,1</t>
+          <t>-1,94; 0,11</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,07</t>
+          <t>-1,36; 0,94</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-91,62; 46,05</t>
+          <t>-88,93; 58,96</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-58,7; 122,99</t>
+          <t>-62,14; 122,25</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-75,62; 116,33</t>
+          <t>-76,48; 111,77</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-70,41; 137,29</t>
+          <t>-67,37; 140,84</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-76,3; 10,85</t>
+          <t>-74,64; 21,99</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-51,21; 75,91</t>
+          <t>-50,48; 74,38</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,7; -0,04</t>
+          <t>-1,8; -0,13</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,19</t>
+          <t>-0,74; 1,15</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,62</t>
+          <t>-1,27; 0,59</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,4</t>
+          <t>-1,38; 0,38</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,0</t>
+          <t>-1,23; -0,04</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,5</t>
+          <t>-0,83; 0,46</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 0,68</t>
+          <t>-57,34; -4,59</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 53,31</t>
+          <t>-24,05; 51,5</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 23,9</t>
+          <t>-35,45; 22,96</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 16,39</t>
+          <t>-38,09; 14,71</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-39,49; -0,11</t>
+          <t>-37,9; -0,88</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 19,99</t>
+          <t>-24,51; 17,95</t>
         </is>
       </c>
     </row>
